--- a/Experimental_Settings.xlsx
+++ b/Experimental_Settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Setting_A" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Settings_B_C_D" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Protocols_List" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Setting_A" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Settings_B_C_D" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Protocols_List" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="271">
   <si>
     <t xml:space="preserve">Setting ID</t>
   </si>
@@ -666,67 +666,175 @@
     <t xml:space="preserve">Inversion_Time(ms)</t>
   </si>
   <si>
+    <t xml:space="preserve">GeE_Dis_30_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Electrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[140, 145]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2355, 2362]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeE_Dis_30_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCOVERY_MR750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE MEDICAL SYSTEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCOVERY MR750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeE_Sig_15_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signa_Hdxt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeE_Sig_15_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNA_EXCITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeE_Sig_30_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA_NA_15_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA_NA_15_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_AcD_30_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieva dStream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ach_15_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ach_15_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ach_30_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ach_30_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips Medical Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ach_30_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ing_15_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips Healthcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Ing_30_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_Int_30_Prot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Aer_15_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEMENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aera</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siemens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Ava_15_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biograph_mMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Bio_30_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Bio_30_Prot3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNETOM_Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Pri_30_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prisma_fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Sky_30_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie_Sky_30_Prot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonata</t>
   </si>
   <si>
     <t xml:space="preserve">Trio</t>
   </si>
   <si>
-    <t xml:space="preserve">Philips Medical Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE MEDICAL SYSTEMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCOVERY MR750, DISCOVERY MR750w </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[115.506, 117.053]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4800, 4802]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1454, 1482]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biograph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGNETOM_Vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[91, 94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIEMENS</t>
+    <t xml:space="preserve">Sie_Tri_30_Prot2</t>
   </si>
   <si>
     <t xml:space="preserve">TrioTim</t>
   </si>
   <si>
-    <t xml:space="preserve">[310, 311]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prisma, Prisma_fit</t>
+    <t xml:space="preserve">Sie_Ver_30_NA</t>
   </si>
   <si>
     <t xml:space="preserve">Verio</t>
   </si>
   <si>
-    <t xml:space="preserve">Philips</t>
+    <t xml:space="preserve">Sie_Ver_30_Prot2</t>
   </si>
 </sst>
 </file>
@@ -736,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -799,12 +907,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1145,12 +1247,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1226,124 +1328,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AJ8" activeCellId="0" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.55"/>
@@ -1392,24 +1388,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="6.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="6.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="2" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="8.21"/>
@@ -15827,7 +15823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15837,7 +15833,7 @@
       <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.55"/>
@@ -15886,7 +15882,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="6.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="6.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="7.31"/>
@@ -15897,13 +15893,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="17.98"/>
@@ -15913,9 +15909,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="2" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="2" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="2" width="5.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="2" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="16.04"/>
@@ -34689,17 +34685,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="23.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="30.7"/>
@@ -34733,326 +34729,924 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="n">
-        <v>392</v>
+      <c r="E2" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="F2" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="46" t="n">
-        <v>1800</v>
+        <v>9000</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="46" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>218</v>
+      <c r="E3" s="47" t="n">
+        <v>25.992</v>
+      </c>
+      <c r="F3" s="47" t="n">
+        <v>2866.88</v>
+      </c>
+      <c r="G3" s="47" t="n">
+        <v>853.596</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="46" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="46" t="n">
-        <v>68</v>
-      </c>
-      <c r="F4" s="46" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G4" s="46" t="n">
-        <v>2800</v>
+      <c r="E4" s="47" t="n">
+        <v>116.194</v>
+      </c>
+      <c r="F4" s="47" t="n">
+        <v>4802</v>
+      </c>
+      <c r="G4" s="47" t="n">
+        <v>1470</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="46" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="47" t="n">
         <v>1.5</v>
       </c>
-      <c r="E5" s="46" t="n">
-        <v>336</v>
-      </c>
-      <c r="F5" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="46" t="n">
-        <v>1800</v>
+      <c r="E5" s="47" t="n">
+        <v>117</v>
+      </c>
+      <c r="F5" s="47" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G5" s="47" t="n">
+        <v>1987</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="46" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="46" t="n">
+      <c r="C6" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="47" t="n">
+        <v>120.15</v>
+      </c>
+      <c r="F6" s="47" t="n">
+        <v>8002</v>
+      </c>
+      <c r="G6" s="47" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>224</v>
+      <c r="E7" s="47" t="n">
+        <v>126</v>
+      </c>
+      <c r="F7" s="47" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G7" s="47" t="n">
+        <v>2340</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="46" t="n">
-        <v>91</v>
-      </c>
-      <c r="F7" s="46" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G7" s="46" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>103</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D8" s="46" t="n">
         <v>1.5</v>
       </c>
       <c r="E8" s="46" t="n">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="F8" s="46" t="n">
         <v>6000</v>
       </c>
-      <c r="G8" s="46" t="n">
-        <v>2200</v>
+      <c r="G8" s="46" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="46" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D9" s="46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>228</v>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="46" t="n">
+        <v>82</v>
       </c>
       <c r="F9" s="46" t="n">
         <v>9000</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>119</v>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="46" t="s">
+        <v>232</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D10" s="46" t="n">
         <v>3</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="46" t="n">
-        <v>1800</v>
+        <v>230</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D11" s="46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="46" t="n">
-        <v>394</v>
-      </c>
-      <c r="F11" s="46" t="n">
-        <v>5000</v>
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="46" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="46" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G12" s="46" t="n">
-        <v>2500</v>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="47" t="n">
+        <v>120</v>
+      </c>
+      <c r="F12" s="47" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G12" s="47" t="n">
+        <v>2800</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
-        <v>116</v>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D13" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="46" t="n">
-        <v>441</v>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G13" s="46" t="n">
-        <v>1650</v>
+      <c r="E13" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="46" t="n">
-        <v>400</v>
-      </c>
-      <c r="F14" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="46" t="n">
-        <v>1800</v>
+      <c r="E14" s="47" t="n">
+        <v>275</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G14" s="47" t="n">
+        <v>1650</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>217</v>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>236</v>
       </c>
       <c r="D15" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="46" t="n">
+      <c r="E15" s="47" t="n">
+        <v>125</v>
+      </c>
+      <c r="F15" s="47" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G15" s="47" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="47" t="n">
+        <v>271</v>
+      </c>
+      <c r="F18" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G18" s="47" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="46" t="n">
         <v>360</v>
       </c>
-      <c r="F15" s="46" t="n">
+      <c r="F19" s="46" t="n">
         <v>5400</v>
       </c>
-      <c r="G15" s="46" t="n">
+      <c r="G19" s="46" t="n">
         <v>1800</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="47" t="n">
+        <v>279</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G20" s="47" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F21" s="46" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G21" s="46" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="46" t="n">
+        <v>336</v>
+      </c>
+      <c r="F23" s="46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G23" s="46" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="46" t="n">
+        <v>91</v>
+      </c>
+      <c r="F25" s="46" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G25" s="46" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47" t="n">
+        <v>445</v>
+      </c>
+      <c r="F26" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G26" s="47" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="47" t="n">
+        <v>190</v>
+      </c>
+      <c r="F27" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G27" s="47" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="46" t="n">
+        <v>394</v>
+      </c>
+      <c r="F28" s="46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="46" t="n">
+        <v>91</v>
+      </c>
+      <c r="F29" s="46" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="47" t="n">
+        <v>441</v>
+      </c>
+      <c r="F31" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G31" s="47" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="47" t="n">
+        <v>441</v>
+      </c>
+      <c r="F33" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G33" s="47" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="46" t="n">
+        <v>354</v>
+      </c>
+      <c r="F34" s="46" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G34" s="46" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="46" t="n">
+        <v>392</v>
+      </c>
+      <c r="F35" s="46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="46" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="47" t="n">
+        <v>82</v>
+      </c>
+      <c r="F36" s="47" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G36" s="47" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="46" t="n">
+        <v>310</v>
+      </c>
+      <c r="F37" s="46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G37" s="46" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="46" t="n">
+        <v>76</v>
+      </c>
+      <c r="F38" s="46" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G38" s="46" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="46" t="n">
+        <v>400</v>
+      </c>
+      <c r="F40" s="46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="46" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="47" t="n">
+        <v>442</v>
+      </c>
+      <c r="F41" s="47" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G41" s="47" t="n">
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
